--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-05.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-05.xlsx
@@ -120,7 +120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frstar")] In this battlefield, the Patrol Unit’s our only enemies.  As for you and your questions, we can talk after.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frstar")] In this battlefield, the Patrol Unit's our only enemies.  As for you and your questions, we can talk after.
 </t>
   </si>
   <si>
